--- a/l5_report.xlsx
+++ b/l5_report.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,11 @@
           <t>确诊人数</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>现存确诊</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -498,6 +503,9 @@
       <c r="D2" t="n">
         <v>30168</v>
       </c>
+      <c r="E2" t="n">
+        <v>6345</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="D3" t="n">
         <v>266775</v>
       </c>
+      <c r="E3" t="n">
+        <v>69427</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,6 +541,9 @@
       <c r="D4" t="n">
         <v>379141</v>
       </c>
+      <c r="E4" t="n">
+        <v>62260</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -546,6 +560,9 @@
       <c r="D5" t="n">
         <v>1209039</v>
       </c>
+      <c r="E5" t="n">
+        <v>212291</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -562,6 +579,9 @@
       <c r="D6" t="n">
         <v>17659</v>
       </c>
+      <c r="E6" t="n">
+        <v>1512</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -578,6 +598,9 @@
       <c r="D7" t="n">
         <v>2921</v>
       </c>
+      <c r="E7" t="n">
+        <v>634</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -594,6 +617,9 @@
       <c r="D8" t="n">
         <v>168501</v>
       </c>
+      <c r="E8" t="n">
+        <v>16467</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -610,6 +636,9 @@
       <c r="D9" t="n">
         <v>38032</v>
       </c>
+      <c r="E9" t="n">
+        <v>12858</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -626,6 +655,9 @@
       <c r="D10" t="n">
         <v>18790</v>
       </c>
+      <c r="E10" t="n">
+        <v>2693</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -642,6 +674,9 @@
       <c r="D11" t="n">
         <v>3172</v>
       </c>
+      <c r="E11" t="n">
+        <v>2446</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -658,6 +693,9 @@
       <c r="D12" t="n">
         <v>6549373</v>
       </c>
+      <c r="E12" t="n">
+        <v>937625</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -674,6 +712,9 @@
       <c r="D13" t="n">
         <v>141034</v>
       </c>
+      <c r="E13" t="n">
+        <v>8876</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -690,6 +731,9 @@
       <c r="D14" t="n">
         <v>855052</v>
       </c>
+      <c r="E14" t="n">
+        <v>66666</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -706,6 +750,9 @@
       <c r="D15" t="n">
         <v>732</v>
       </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -722,6 +769,9 @@
       <c r="D16" t="n">
         <v>103683</v>
       </c>
+      <c r="E16" t="n">
+        <v>347</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -738,6 +788,9 @@
       <c r="D17" t="n">
         <v>761665</v>
       </c>
+      <c r="E17" t="n">
+        <v>37454</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -754,6 +807,9 @@
       <c r="D18" t="n">
         <v>48146</v>
       </c>
+      <c r="E18" t="n">
+        <v>8704</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -770,6 +826,9 @@
       <c r="D19" t="n">
         <v>59345</v>
       </c>
+      <c r="E19" t="n">
+        <v>7464</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -786,6 +845,9 @@
       <c r="D20" t="n">
         <v>86823</v>
       </c>
+      <c r="E20" t="n">
+        <v>22219</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -802,6 +864,9 @@
       <c r="D21" t="n">
         <v>314616</v>
       </c>
+      <c r="E21" t="n">
+        <v>9135</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -818,6 +883,9 @@
       <c r="D22" t="n">
         <v>72662</v>
       </c>
+      <c r="E22" t="n">
+        <v>4927</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -834,6 +902,9 @@
       <c r="D23" t="n">
         <v>4915289</v>
       </c>
+      <c r="E23" t="n">
+        <v>407829</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -850,6 +921,9 @@
       <c r="D24" t="n">
         <v>19842</v>
       </c>
+      <c r="E24" t="n">
+        <v>18086</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -866,6 +940,9 @@
       <c r="D25" t="n">
         <v>301573</v>
       </c>
+      <c r="E25" t="n">
+        <v>30038</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -882,6 +959,9 @@
       <c r="D26" t="n">
         <v>14457</v>
       </c>
+      <c r="E26" t="n">
+        <v>2992</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -898,6 +978,9 @@
       <c r="D27" t="n">
         <v>222</v>
       </c>
+      <c r="E27" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -914,6 +997,9 @@
       <c r="D28" t="n">
         <v>3402</v>
       </c>
+      <c r="E28" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -930,6 +1016,9 @@
       <c r="D29" t="n">
         <v>1854</v>
       </c>
+      <c r="E29" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -946,6 +1035,9 @@
       <c r="D30" t="n">
         <v>278</v>
       </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -962,6 +1054,9 @@
       <c r="D31" t="n">
         <v>8118</v>
       </c>
+      <c r="E31" t="n">
+        <v>3824</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -978,6 +1073,9 @@
       <c r="D32" t="n">
         <v>127623</v>
       </c>
+      <c r="E32" t="n">
+        <v>97934</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -994,6 +1092,9 @@
       <c r="D33" t="n">
         <v>629509</v>
       </c>
+      <c r="E33" t="n">
+        <v>497057</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1010,6 +1111,9 @@
       <c r="D34" t="n">
         <v>3585</v>
       </c>
+      <c r="E34" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1026,6 +1130,9 @@
       <c r="D35" t="n">
         <v>27145</v>
       </c>
+      <c r="E35" t="n">
+        <v>1387</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1042,6 +1149,9 @@
       <c r="D36" t="n">
         <v>3607</v>
       </c>
+      <c r="E36" t="n">
+        <v>791</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1058,6 +1168,9 @@
       <c r="D37" t="n">
         <v>94283</v>
       </c>
+      <c r="E37" t="n">
+        <v>83417</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1074,6 +1187,9 @@
       <c r="D38" t="n">
         <v>54384</v>
       </c>
+      <c r="E38" t="n">
+        <v>6507</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1090,6 +1206,9 @@
       <c r="D39" t="n">
         <v>79852</v>
       </c>
+      <c r="E39" t="n">
+        <v>3853</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1106,6 +1225,9 @@
       <c r="D40" t="n">
         <v>107025</v>
       </c>
+      <c r="E40" t="n">
+        <v>7361</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1122,6 +1244,9 @@
       <c r="D41" t="n">
         <v>19882</v>
       </c>
+      <c r="E41" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1138,6 +1263,9 @@
       <c r="D42" t="n">
         <v>5185</v>
       </c>
+      <c r="E42" t="n">
+        <v>2596</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1154,6 +1282,9 @@
       <c r="D43" t="n">
         <v>135900</v>
       </c>
+      <c r="E43" t="n">
+        <v>22762</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1170,6 +1301,9 @@
       <c r="D44" t="n">
         <v>10538</v>
       </c>
+      <c r="E44" t="n">
+        <v>2093</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1186,6 +1320,9 @@
       <c r="D45" t="n">
         <v>505619</v>
       </c>
+      <c r="E45" t="n">
+        <v>460776</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1202,6 +1339,9 @@
       <c r="D46" t="n">
         <v>141225</v>
       </c>
+      <c r="E46" t="n">
+        <v>130336</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1218,6 +1358,9 @@
       <c r="D47" t="n">
         <v>322497</v>
       </c>
+      <c r="E47" t="n">
+        <v>43642</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1234,6 +1377,9 @@
       <c r="D48" t="n">
         <v>810807</v>
       </c>
+      <c r="E48" t="n">
+        <v>581763</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1250,6 +1396,9 @@
       <c r="D49" t="n">
         <v>1096</v>
       </c>
+      <c r="E49" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1266,6 +1415,9 @@
       <c r="D50" t="n">
         <v>40691</v>
       </c>
+      <c r="E50" t="n">
+        <v>1599</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1282,6 +1434,9 @@
       <c r="D51" t="n">
         <v>39341</v>
       </c>
+      <c r="E51" t="n">
+        <v>5027</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1298,6 +1453,9 @@
       <c r="D52" t="n">
         <v>52136</v>
       </c>
+      <c r="E52" t="n">
+        <v>13798</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1314,6 +1472,9 @@
       <c r="D53" t="n">
         <v>101270</v>
       </c>
+      <c r="E53" t="n">
+        <v>9997</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1330,6 +1491,9 @@
       <c r="D54" t="n">
         <v>98801</v>
       </c>
+      <c r="E54" t="n">
+        <v>10252</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1346,6 +1510,9 @@
       <c r="D55" t="n">
         <v>12381</v>
       </c>
+      <c r="E55" t="n">
+        <v>1961</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1362,6 +1529,9 @@
       <c r="D56" t="n">
         <v>44482</v>
       </c>
+      <c r="E56" t="n">
+        <v>24294</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1378,6 +1548,9 @@
       <c r="D57" t="n">
         <v>24091</v>
       </c>
+      <c r="E57" t="n">
+        <v>1825</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1394,6 +1567,9 @@
       <c r="D58" t="n">
         <v>471772</v>
       </c>
+      <c r="E58" t="n">
+        <v>54849</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1410,6 +1586,9 @@
       <c r="D59" t="n">
         <v>325329</v>
       </c>
+      <c r="E59" t="n">
+        <v>57429</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1426,6 +1605,9 @@
       <c r="D60" t="n">
         <v>57812</v>
       </c>
+      <c r="E60" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1442,6 +1624,9 @@
       <c r="D61" t="n">
         <v>85746</v>
       </c>
+      <c r="E61" t="n">
+        <v>6297</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1458,6 +1643,9 @@
       <c r="D62" t="n">
         <v>712</v>
       </c>
+      <c r="E62" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1474,6 +1662,9 @@
       <c r="D63" t="n">
         <v>7636912</v>
       </c>
+      <c r="E63" t="n">
+        <v>2573263</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1490,6 +1681,9 @@
       <c r="D64" t="n">
         <v>81711</v>
       </c>
+      <c r="E64" t="n">
+        <v>36998</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1506,6 +1700,9 @@
       <c r="D65" t="n">
         <v>303498</v>
       </c>
+      <c r="E65" t="n">
+        <v>63894</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1522,6 +1719,9 @@
       <c r="D66" t="n">
         <v>126498</v>
       </c>
+      <c r="E66" t="n">
+        <v>2807</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1538,6 +1738,9 @@
       <c r="D67" t="n">
         <v>114480</v>
       </c>
+      <c r="E67" t="n">
+        <v>21980</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1554,6 +1757,9 @@
       <c r="D68" t="n">
         <v>8709</v>
       </c>
+      <c r="E68" t="n">
+        <v>1156</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1570,6 +1776,9 @@
       <c r="D69" t="n">
         <v>79151</v>
       </c>
+      <c r="E69" t="n">
+        <v>26939</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1586,6 +1795,9 @@
       <c r="D70" t="n">
         <v>52496</v>
       </c>
+      <c r="E70" t="n">
+        <v>6847</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1602,6 +1814,9 @@
       <c r="D71" t="n">
         <v>15640</v>
       </c>
+      <c r="E71" t="n">
+        <v>10299</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1618,6 +1833,9 @@
       <c r="D72" t="n">
         <v>2110</v>
       </c>
+      <c r="E72" t="n">
+        <v>517</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1634,6 +1852,9 @@
       <c r="D73" t="n">
         <v>15094</v>
       </c>
+      <c r="E73" t="n">
+        <v>1977</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1650,6 +1871,9 @@
       <c r="D74" t="n">
         <v>336387</v>
       </c>
+      <c r="E74" t="n">
+        <v>10027</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1666,6 +1890,9 @@
       <c r="D75" t="n">
         <v>22230</v>
       </c>
+      <c r="E75" t="n">
+        <v>16877</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1682,6 +1909,9 @@
       <c r="D76" t="n">
         <v>2086</v>
       </c>
+      <c r="E76" t="n">
+        <v>741</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1698,6 +1928,9 @@
       <c r="D77" t="n">
         <v>133272</v>
       </c>
+      <c r="E77" t="n">
+        <v>19906</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1714,6 +1947,9 @@
       <c r="D78" t="n">
         <v>232424</v>
       </c>
+      <c r="E78" t="n">
+        <v>124167</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1730,6 +1966,9 @@
       <c r="D79" t="n">
         <v>798486</v>
       </c>
+      <c r="E79" t="n">
+        <v>140796</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1746,6 +1985,9 @@
       <c r="D80" t="n">
         <v>470179</v>
       </c>
+      <c r="E80" t="n">
+        <v>15130</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1762,6 +2004,9 @@
       <c r="D81" t="n">
         <v>100074</v>
       </c>
+      <c r="E81" t="n">
+        <v>24441</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1778,6 +2023,9 @@
       <c r="D82" t="n">
         <v>30575</v>
       </c>
+      <c r="E82" t="n">
+        <v>22283</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1794,6 +2042,9 @@
       <c r="D83" t="n">
         <v>6498</v>
       </c>
+      <c r="E83" t="n">
+        <v>2078</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1810,6 +2061,9 @@
       <c r="D84" t="n">
         <v>28354</v>
       </c>
+      <c r="E84" t="n">
+        <v>5616</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1826,6 +2080,9 @@
       <c r="D85" t="n">
         <v>681289</v>
       </c>
+      <c r="E85" t="n">
+        <v>49532</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1842,6 +2099,9 @@
       <c r="D86" t="n">
         <v>9692</v>
       </c>
+      <c r="E86" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1858,6 +2118,9 @@
       <c r="D87" t="n">
         <v>41498</v>
       </c>
+      <c r="E87" t="n">
+        <v>6470</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1874,6 +2137,9 @@
       <c r="D88" t="n">
         <v>283</v>
       </c>
+      <c r="E88" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1890,6 +2156,9 @@
       <c r="D89" t="n">
         <v>20924</v>
       </c>
+      <c r="E89" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1906,6 +2175,9 @@
       <c r="D90" t="n">
         <v>12</v>
       </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1922,6 +2194,9 @@
       <c r="D91" t="n">
         <v>33842</v>
       </c>
+      <c r="E91" t="n">
+        <v>17176</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1938,6 +2213,9 @@
       <c r="D92" t="n">
         <v>13139</v>
       </c>
+      <c r="E92" t="n">
+        <v>8256</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1954,6 +2232,9 @@
       <c r="D93" t="n">
         <v>821564</v>
       </c>
+      <c r="E93" t="n">
+        <v>88087</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1970,6 +2251,9 @@
       <c r="D94" t="n">
         <v>1854</v>
       </c>
+      <c r="E94" t="n">
+        <v>414</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1986,6 +2270,9 @@
       <c r="D95" t="n">
         <v>107</v>
       </c>
+      <c r="E95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2002,6 +2289,9 @@
       <c r="D96" t="n">
         <v>79182</v>
       </c>
+      <c r="E96" t="n">
+        <v>33225</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2018,6 +2308,9 @@
       <c r="D97" t="n">
         <v>3270</v>
       </c>
+      <c r="E97" t="n">
+        <v>473</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2034,6 +2327,9 @@
       <c r="D98" t="n">
         <v>10530</v>
       </c>
+      <c r="E98" t="n">
+        <v>1132</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2050,6 +2346,9 @@
       <c r="D99" t="n">
         <v>43452</v>
       </c>
+      <c r="E99" t="n">
+        <v>16027</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2066,6 +2365,9 @@
       <c r="D100" t="n">
         <v>56579</v>
       </c>
+      <c r="E100" t="n">
+        <v>14258</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2082,6 +2384,9 @@
       <c r="D101" t="n">
         <v>146</v>
       </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2098,6 +2403,9 @@
       <c r="D102" t="n">
         <v>368690</v>
       </c>
+      <c r="E102" t="n">
+        <v>81686</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2114,6 +2422,9 @@
       <c r="D103" t="n">
         <v>21587</v>
       </c>
+      <c r="E103" t="n">
+        <v>5729</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2130,6 +2441,9 @@
       <c r="D104" t="n">
         <v>14266</v>
       </c>
+      <c r="E104" t="n">
+        <v>5195</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2146,6 +2460,9 @@
       <c r="D105" t="n">
         <v>1824</v>
       </c>
+      <c r="E105" t="n">
+        <v>433</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2162,6 +2479,9 @@
       <c r="D106" t="n">
         <v>2154</v>
       </c>
+      <c r="E106" t="n">
+        <v>698</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2178,6 +2498,9 @@
       <c r="D107" t="n">
         <v>313</v>
       </c>
+      <c r="E107" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2194,6 +2517,9 @@
       <c r="D108" t="n">
         <v>115286</v>
       </c>
+      <c r="E108" t="n">
+        <v>21054</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2210,6 +2536,9 @@
       <c r="D109" t="n">
         <v>324443</v>
       </c>
+      <c r="E109" t="n">
+        <v>30952</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2226,6 +2555,9 @@
       <c r="D110" t="n">
         <v>6895</v>
       </c>
+      <c r="E110" t="n">
+        <v>4315</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2242,6 +2574,9 @@
       <c r="D111" t="n">
         <v>136569</v>
       </c>
+      <c r="E111" t="n">
+        <v>31391</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2258,6 +2593,9 @@
       <c r="D112" t="n">
         <v>78788</v>
       </c>
+      <c r="E112" t="n">
+        <v>47202</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2274,6 +2612,9 @@
       <c r="D113" t="n">
         <v>3005</v>
       </c>
+      <c r="E113" t="n">
+        <v>1013</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2290,6 +2631,9 @@
       <c r="D114" t="n">
         <v>5809</v>
       </c>
+      <c r="E114" t="n">
+        <v>542</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2306,6 +2650,9 @@
       <c r="D115" t="n">
         <v>46829</v>
       </c>
+      <c r="E115" t="n">
+        <v>466</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2322,6 +2669,9 @@
       <c r="D116" t="n">
         <v>8797</v>
       </c>
+      <c r="E116" t="n">
+        <v>676</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2338,6 +2688,9 @@
       <c r="D117" t="n">
         <v>4741</v>
       </c>
+      <c r="E117" t="n">
+        <v>1817</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2354,6 +2707,9 @@
       <c r="D118" t="n">
         <v>39427</v>
       </c>
+      <c r="E118" t="n">
+        <v>13037</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2370,6 +2726,9 @@
       <c r="D119" t="n">
         <v>108177</v>
       </c>
+      <c r="E119" t="n">
+        <v>3247</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2386,6 +2745,9 @@
       <c r="D120" t="n">
         <v>78819</v>
       </c>
+      <c r="E120" t="n">
+        <v>44537</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2402,6 +2764,9 @@
       <c r="D121" t="n">
         <v>10754</v>
       </c>
+      <c r="E121" t="n">
+        <v>590</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2418,6 +2783,9 @@
       <c r="D122" t="n">
         <v>13653</v>
       </c>
+      <c r="E122" t="n">
+        <v>6053</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2434,6 +2802,9 @@
       <c r="D123" t="n">
         <v>77646</v>
       </c>
+      <c r="E123" t="n">
+        <v>8899</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2450,6 +2821,9 @@
       <c r="D124" t="n">
         <v>2145</v>
       </c>
+      <c r="E124" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2466,6 +2840,9 @@
       <c r="D125" t="n">
         <v>93963</v>
       </c>
+      <c r="E125" t="n">
+        <v>8216</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2482,6 +2859,9 @@
       <c r="D126" t="n">
         <v>107</v>
       </c>
+      <c r="E126" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2498,6 +2878,9 @@
       <c r="D127" t="n">
         <v>4924</v>
       </c>
+      <c r="E127" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2514,6 +2897,9 @@
       <c r="D128" t="n">
         <v>7520</v>
       </c>
+      <c r="E128" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2530,6 +2916,9 @@
       <c r="D129" t="n">
         <v>5569</v>
       </c>
+      <c r="E129" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2546,6 +2935,9 @@
       <c r="D130" t="n">
         <v>4866</v>
       </c>
+      <c r="E130" t="n">
+        <v>1621</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2562,6 +2954,9 @@
       <c r="D131" t="n">
         <v>11626</v>
       </c>
+      <c r="E131" t="n">
+        <v>2074</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2578,6 +2973,9 @@
       <c r="D132" t="n">
         <v>5045</v>
       </c>
+      <c r="E132" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2594,6 +2992,9 @@
       <c r="D133" t="n">
         <v>146</v>
       </c>
+      <c r="E133" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2610,6 +3011,9 @@
       <c r="D134" t="n">
         <v>4845</v>
       </c>
+      <c r="E134" t="n">
+        <v>2869</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2626,6 +3030,9 @@
       <c r="D135" t="n">
         <v>58612</v>
       </c>
+      <c r="E135" t="n">
+        <v>2851</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2642,6 +3049,9 @@
       <c r="D136" t="n">
         <v>5089</v>
       </c>
+      <c r="E136" t="n">
+        <v>1113</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2658,6 +3068,9 @@
       <c r="D137" t="n">
         <v>10760</v>
       </c>
+      <c r="E137" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2674,6 +3087,9 @@
       <c r="D138" t="n">
         <v>4409</v>
       </c>
+      <c r="E138" t="n">
+        <v>1938</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2690,6 +3106,9 @@
       <c r="D139" t="n">
         <v>1348</v>
       </c>
+      <c r="E139" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2706,6 +3125,9 @@
       <c r="D140" t="n">
         <v>509</v>
       </c>
+      <c r="E140" t="n">
+        <v>305</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2722,6 +3144,9 @@
       <c r="D141" t="n">
         <v>3745</v>
       </c>
+      <c r="E141" t="n">
+        <v>636</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2738,6 +3163,9 @@
       <c r="D142" t="n">
         <v>2357</v>
       </c>
+      <c r="E142" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2754,6 +3182,9 @@
       <c r="D143" t="n">
         <v>36809</v>
       </c>
+      <c r="E143" t="n">
+        <v>14788</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2770,6 +3201,9 @@
       <c r="D144" t="n">
         <v>12127</v>
       </c>
+      <c r="E144" t="n">
+        <v>3995</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2786,6 +3220,9 @@
       <c r="D145" t="n">
         <v>3594</v>
       </c>
+      <c r="E145" t="n">
+        <v>1253</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2802,6 +3239,9 @@
       <c r="D146" t="n">
         <v>196</v>
       </c>
+      <c r="E146" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2818,6 +3258,9 @@
       <c r="D147" t="n">
         <v>47428</v>
       </c>
+      <c r="E147" t="n">
+        <v>2944</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2834,6 +3277,9 @@
       <c r="D148" t="n">
         <v>15052</v>
       </c>
+      <c r="E148" t="n">
+        <v>532</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2850,6 +3296,9 @@
       <c r="D149" t="n">
         <v>385</v>
       </c>
+      <c r="E149" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2866,6 +3315,9 @@
       <c r="D150" t="n">
         <v>32</v>
       </c>
+      <c r="E150" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2882,6 +3334,9 @@
       <c r="D151" t="n">
         <v>5170</v>
       </c>
+      <c r="E151" t="n">
+        <v>2106</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2898,6 +3353,9 @@
       <c r="D152" t="n">
         <v>29450</v>
       </c>
+      <c r="E152" t="n">
+        <v>4291</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2914,6 +3372,9 @@
       <c r="D153" t="n">
         <v>1217</v>
       </c>
+      <c r="E153" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2930,6 +3391,9 @@
       <c r="D154" t="n">
         <v>1200</v>
       </c>
+      <c r="E154" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2946,6 +3410,9 @@
       <c r="D155" t="n">
         <v>8819</v>
       </c>
+      <c r="E155" t="n">
+        <v>1598</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2962,6 +3429,9 @@
       <c r="D156" t="n">
         <v>6360</v>
       </c>
+      <c r="E156" t="n">
+        <v>879</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2978,6 +3448,9 @@
       <c r="D157" t="n">
         <v>16558</v>
       </c>
+      <c r="E157" t="n">
+        <v>840</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2994,6 +3467,9 @@
       <c r="D158" t="n">
         <v>7888</v>
       </c>
+      <c r="E158" t="n">
+        <v>1301</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3010,6 +3486,9 @@
       <c r="D159" t="n">
         <v>540</v>
       </c>
+      <c r="E159" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3026,6 +3505,9 @@
       <c r="D160" t="n">
         <v>28</v>
       </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3042,6 +3524,9 @@
       <c r="D161" t="n">
         <v>8808</v>
       </c>
+      <c r="E161" t="n">
+        <v>3991</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3058,6 +3543,9 @@
       <c r="D162" t="n">
         <v>398</v>
       </c>
+      <c r="E162" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3074,6 +3562,9 @@
       <c r="D163" t="n">
         <v>9196</v>
       </c>
+      <c r="E163" t="n">
+        <v>3278</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3090,6 +3581,9 @@
       <c r="D164" t="n">
         <v>4366</v>
       </c>
+      <c r="E164" t="n">
+        <v>3006</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3106,6 +3600,9 @@
       <c r="D165" t="n">
         <v>31</v>
       </c>
+      <c r="E165" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3122,6 +3619,9 @@
       <c r="D166" t="n">
         <v>620</v>
       </c>
+      <c r="E166" t="n">
+        <v>610</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3138,6 +3638,9 @@
       <c r="D167" t="n">
         <v>17794</v>
       </c>
+      <c r="E167" t="n">
+        <v>12187</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3154,6 +3657,9 @@
       <c r="D168" t="n">
         <v>2131</v>
       </c>
+      <c r="E168" t="n">
+        <v>756</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3170,6 +3676,9 @@
       <c r="D169" t="n">
         <v>23</v>
       </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3186,6 +3695,9 @@
       <c r="D170" t="n">
         <v>3184</v>
       </c>
+      <c r="E170" t="n">
+        <v>574</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3202,6 +3714,9 @@
       <c r="D171" t="n">
         <v>2362</v>
       </c>
+      <c r="E171" t="n">
+        <v>774</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3218,6 +3733,9 @@
       <c r="D172" t="n">
         <v>5402</v>
       </c>
+      <c r="E172" t="n">
+        <v>2630</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3234,6 +3752,9 @@
       <c r="D173" t="n">
         <v>668</v>
       </c>
+      <c r="E173" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3250,6 +3771,9 @@
       <c r="D174" t="n">
         <v>19</v>
       </c>
+      <c r="E174" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3266,6 +3790,9 @@
       <c r="D175" t="n">
         <v>11</v>
       </c>
+      <c r="E175" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3282,6 +3809,9 @@
       <c r="D176" t="n">
         <v>3</v>
       </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3298,6 +3828,9 @@
       <c r="D177" t="n">
         <v>27</v>
       </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3314,6 +3847,9 @@
       <c r="D178" t="n">
         <v>24</v>
       </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3330,6 +3866,9 @@
       <c r="D179" t="n">
         <v>26</v>
       </c>
+      <c r="E179" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3346,6 +3885,9 @@
       <c r="D180" t="n">
         <v>3551</v>
       </c>
+      <c r="E180" t="n">
+        <v>1289</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3362,6 +3904,9 @@
       <c r="D181" t="n">
         <v>773</v>
       </c>
+      <c r="E181" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3378,6 +3923,9 @@
       <c r="D182" t="n">
         <v>315</v>
       </c>
+      <c r="E182" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3394,6 +3942,9 @@
       <c r="D183" t="n">
         <v>66</v>
       </c>
+      <c r="E183" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3410,6 +3961,9 @@
       <c r="D184" t="n">
         <v>2269</v>
       </c>
+      <c r="E184" t="n">
+        <v>491</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3426,6 +3980,9 @@
       <c r="D185" t="n">
         <v>513</v>
       </c>
+      <c r="E185" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3442,6 +3999,9 @@
       <c r="D186" t="n">
         <v>5786</v>
       </c>
+      <c r="E186" t="n">
+        <v>1066</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3458,6 +4018,9 @@
       <c r="D187" t="n">
         <v>5419</v>
       </c>
+      <c r="E187" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3474,6 +4037,9 @@
       <c r="D188" t="n">
         <v>913</v>
       </c>
+      <c r="E188" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3490,6 +4056,9 @@
       <c r="D189" t="n">
         <v>2726</v>
       </c>
+      <c r="E189" t="n">
+        <v>1386</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3506,6 +4075,9 @@
       <c r="D190" t="n">
         <v>2041</v>
       </c>
+      <c r="E190" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3522,6 +4094,9 @@
       <c r="D191" t="n">
         <v>64</v>
       </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3538,6 +4113,9 @@
       <c r="D192" t="n">
         <v>10</v>
       </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3554,6 +4132,9 @@
       <c r="D193" t="n">
         <v>470</v>
       </c>
+      <c r="E193" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3570,6 +4151,9 @@
       <c r="D194" t="n">
         <v>9935</v>
       </c>
+      <c r="E194" t="n">
+        <v>1108</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3586,6 +4170,9 @@
       <c r="D195" t="n">
         <v>1680</v>
       </c>
+      <c r="E195" t="n">
+        <v>715</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3601,6 +4188,9 @@
       </c>
       <c r="D196" t="n">
         <v>48755</v>
+      </c>
+      <c r="E196" t="n">
+        <v>42510</v>
       </c>
     </row>
   </sheetData>
@@ -3614,7 +4204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3643,6 +4233,11 @@
           <t>确诊人数</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>现存确诊</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3659,6 +4254,9 @@
       <c r="D2" t="n">
         <v>936</v>
       </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3675,6 +4273,9 @@
       <c r="D3" t="n">
         <v>68139</v>
       </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3691,6 +4292,9 @@
       <c r="D4" t="n">
         <v>1841</v>
       </c>
+      <c r="E4" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3707,6 +4311,9 @@
       <c r="D5" t="n">
         <v>1282</v>
       </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3723,6 +4330,9 @@
       <c r="D6" t="n">
         <v>1281</v>
       </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3739,6 +4349,9 @@
       <c r="D7" t="n">
         <v>1019</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3755,6 +4368,9 @@
       <c r="D8" t="n">
         <v>585</v>
       </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3771,6 +4387,9 @@
       <c r="D9" t="n">
         <v>991</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3787,6 +4406,9 @@
       <c r="D10" t="n">
         <v>704</v>
       </c>
+      <c r="E10" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3803,6 +4425,9 @@
       <c r="D11" t="n">
         <v>832</v>
       </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3819,6 +4444,9 @@
       <c r="D12" t="n">
         <v>157</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3835,6 +4463,9 @@
       <c r="D13" t="n">
         <v>413</v>
       </c>
+      <c r="E13" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3851,6 +4482,9 @@
       <c r="D14" t="n">
         <v>935</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3867,6 +4501,9 @@
       <c r="D15" t="n">
         <v>667</v>
       </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3883,6 +4520,9 @@
       <c r="D16" t="n">
         <v>1022</v>
       </c>
+      <c r="E16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3899,6 +4539,9 @@
       <c r="D17" t="n">
         <v>260</v>
       </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3915,6 +4558,9 @@
       <c r="D18" t="n">
         <v>171</v>
       </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3931,6 +4577,9 @@
       <c r="D19" t="n">
         <v>413</v>
       </c>
+      <c r="E19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3947,6 +4596,9 @@
       <c r="D20" t="n">
         <v>365</v>
       </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3963,6 +4615,9 @@
       <c r="D21" t="n">
         <v>949</v>
       </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3979,6 +4634,9 @@
       <c r="D22" t="n">
         <v>271</v>
       </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3995,6 +4653,9 @@
       <c r="D23" t="n">
         <v>211</v>
       </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4011,6 +4672,9 @@
       <c r="D24" t="n">
         <v>241</v>
       </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4027,6 +4691,9 @@
       <c r="D25" t="n">
         <v>205</v>
       </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4043,6 +4710,9 @@
       <c r="D26" t="n">
         <v>170</v>
       </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4059,6 +4729,9 @@
       <c r="D27" t="n">
         <v>268</v>
       </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4075,6 +4748,9 @@
       <c r="D28" t="n">
         <v>517</v>
       </c>
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4091,6 +4767,9 @@
       <c r="D29" t="n">
         <v>46</v>
       </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4107,6 +4786,9 @@
       <c r="D30" t="n">
         <v>5113</v>
       </c>
+      <c r="E30" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4123,6 +4805,9 @@
       <c r="D31" t="n">
         <v>147</v>
       </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4139,6 +4824,9 @@
       <c r="D32" t="n">
         <v>1</v>
       </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4155,6 +4843,9 @@
       <c r="D33" t="n">
         <v>18</v>
       </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4171,6 +4862,9 @@
       <c r="D34" t="n">
         <v>902</v>
       </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4186,6 +4880,9 @@
       </c>
       <c r="D35" t="n">
         <v>75</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4199,7 +4896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4220,6 +4917,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>现存确诊</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>确诊人数</t>
         </is>
       </c>
@@ -4237,6 +4939,9 @@
         <v>26340847</v>
       </c>
       <c r="D2" t="n">
+        <v>7893000</v>
+      </c>
+      <c r="E2" t="n">
         <v>35270206</v>
       </c>
     </row>
@@ -4253,6 +4958,9 @@
         <v>86015</v>
       </c>
       <c r="D3" t="n">
+        <v>386</v>
+      </c>
+      <c r="E3" t="n">
         <v>91147</v>
       </c>
     </row>
@@ -4267,7 +4975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4296,6 +5004,11 @@
           <t>确诊人数</t>
         </is>
       </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>现存确诊</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4312,6 +5025,9 @@
       <c r="D2" t="n">
         <v>7636912</v>
       </c>
+      <c r="E2" t="n">
+        <v>2573263</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4328,85 +5044,103 @@
       <c r="D3" t="n">
         <v>6549373</v>
       </c>
+      <c r="E3" t="n">
+        <v>937625</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>巴西</t>
+          <t>西班牙</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4361108</v>
+        <v>196958</v>
       </c>
       <c r="C4" t="n">
-        <v>146352</v>
+        <v>32086</v>
       </c>
       <c r="D4" t="n">
-        <v>4915289</v>
+        <v>810807</v>
+      </c>
+      <c r="E4" t="n">
+        <v>581763</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>俄罗斯</t>
+          <t>法国</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>975488</v>
+        <v>100281</v>
       </c>
       <c r="C5" t="n">
-        <v>21260</v>
+        <v>32171</v>
       </c>
       <c r="D5" t="n">
-        <v>1209039</v>
+        <v>629509</v>
+      </c>
+      <c r="E5" t="n">
+        <v>497057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>哥伦比亚</t>
+          <t>英国</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>761674</v>
+        <v>2403</v>
       </c>
       <c r="C6" t="n">
-        <v>26712</v>
+        <v>42440</v>
       </c>
       <c r="D6" t="n">
-        <v>855052</v>
+        <v>505619</v>
+      </c>
+      <c r="E6" t="n">
+        <v>460776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>秘鲁</t>
+          <t>巴西</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>700868</v>
+        <v>4361108</v>
       </c>
       <c r="C7" t="n">
-        <v>32609</v>
+        <v>146352</v>
       </c>
       <c r="D7" t="n">
-        <v>821564</v>
+        <v>4915289</v>
+      </c>
+      <c r="E7" t="n">
+        <v>407829</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>西班牙</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>196958</v>
+        <v>975488</v>
       </c>
       <c r="C8" t="n">
-        <v>32086</v>
+        <v>21260</v>
       </c>
       <c r="D8" t="n">
-        <v>810807</v>
+        <v>1209039</v>
+      </c>
+      <c r="E8" t="n">
+        <v>212291</v>
       </c>
     </row>
     <row r="9">
@@ -4424,37 +5158,46 @@
       <c r="D9" t="n">
         <v>798486</v>
       </c>
+      <c r="E9" t="n">
+        <v>140796</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>墨西哥</t>
+          <t>荷兰</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>645123</v>
+        <v>4381</v>
       </c>
       <c r="C10" t="n">
-        <v>79088</v>
+        <v>6508</v>
       </c>
       <c r="D10" t="n">
-        <v>761665</v>
+        <v>141225</v>
+      </c>
+      <c r="E10" t="n">
+        <v>130336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>南非</t>
+          <t>乌克兰</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614781</v>
+        <v>103762</v>
       </c>
       <c r="C11" t="n">
-        <v>16976</v>
+        <v>4495</v>
       </c>
       <c r="D11" t="n">
-        <v>681289</v>
+        <v>232424</v>
+      </c>
+      <c r="E11" t="n">
+        <v>124167</v>
       </c>
     </row>
   </sheetData>
